--- a/result/atest_060_zernikemomentcalctime_GPU_10P_2K.xlsx
+++ b/result/atest_060_zernikemomentcalctime_GPU_10P_2K.xlsx
@@ -466,23 +466,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NOCAC</t>
+          <t>CACHE</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.529987017060312</v>
+        <v>-0.395407711062946</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.05940729752182961</v>
+        <v>-0.8398606181144713</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8721530437469482</v>
+        <v>0.1445903778076172</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1510047912597656</v>
+        <v>0.1099283695220947</v>
       </c>
     </row>
     <row r="3">
@@ -493,23 +493,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NOCAC</t>
+          <t>CACHE</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6842291762968694</v>
+        <v>0.4523983297505317</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.7560618519783019</v>
+        <v>-1.003553032875061</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1753630638122559</v>
+        <v>0.09918522834777832</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2817809581756592</v>
+        <v>0.135716438293457</v>
       </c>
     </row>
   </sheetData>

--- a/result/atest_060_zernikemomentcalctime_GPU_10P_2K.xlsx
+++ b/result/atest_060_zernikemomentcalctime_GPU_10P_2K.xlsx
@@ -473,16 +473,16 @@
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.395407711062946</v>
+        <v>-0.6137041073807107</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.8398606181144713</v>
+        <v>-0.7937597036361693</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1445903778076172</v>
+        <v>0.160783052444458</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1099283695220947</v>
+        <v>0.105074405670166</v>
       </c>
     </row>
     <row r="3">
@@ -500,16 +500,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4523983297505317</v>
+        <v>0.7844165803727395</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.003553032875061</v>
+        <v>-0.924379229545593</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09918522834777832</v>
+        <v>0.1190202236175537</v>
       </c>
       <c r="G3" t="n">
-        <v>0.135716438293457</v>
+        <v>0.2049999237060547</v>
       </c>
     </row>
   </sheetData>
